--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value390.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value390.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281024366221736</v>
+        <v>1.487532377243042</v>
       </c>
       <c r="B1">
-        <v>1.604046440234635</v>
+        <v>3.350951910018921</v>
       </c>
       <c r="C1">
-        <v>1.666782518087813</v>
+        <v>2.691777467727661</v>
       </c>
       <c r="D1">
-        <v>2.01103163486352</v>
+        <v>2.401623010635376</v>
       </c>
       <c r="E1">
-        <v>2.64091890688458</v>
+        <v>1.793492197990417</v>
       </c>
     </row>
   </sheetData>
